--- a/biology/Histoire de la zoologie et de la botanique/Georg_von_Grimpe/Georg_von_Grimpe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georg_von_Grimpe/Georg_von_Grimpe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Johann von Grimpe est un zoologiste allemand, né le 16 février 1889 à Leipzig et mort le 22 janvier 1936 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Georg et d’Hedwig née Werner. Il étudie l’histoire naturelle et en particulier la zoologie et l’anatomie comparée à l’université de Leipzig où il obtient son doctorat en 1912. Il est marie avec Elisabeth Bückmann en 1916. De 1916 à 1920, il est assistant au jardin zoologique de la ville, puis, à partir de 1915, travaille à l’institut de zoologie de l’université. Il y est tour à tour assistant (1915), maître de conférences (1922, professeur associé (1928). Ses recherches en biologie marine (et notamment sur les céphalopodes) le conduisent à travailler dans les stations de recherche de Naples, de Villefranche-sur-Mer, à Heligoland et à Monaco. Il dirige la publication de Tierwelft der Nord und Ostsee et du journal Der Zoologische Garten (à partir de 1927).
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
